--- a/GA/src/chxxx.xlsx
+++ b/GA/src/chxxx.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE65A294-5675-004A-9C73-B63722D5468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9869CBC-306C-274C-BAEF-E784647B8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="6340" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{0089B590-ACAC-3442-81D0-43320FBB906A}"/>
+    <workbookView xWindow="71240" yWindow="7380" windowWidth="27240" windowHeight="16440" xr2:uid="{0089B590-ACAC-3442-81D0-43320FBB906A}"/>
   </bookViews>
   <sheets>
     <sheet name="retailerA" sheetId="1" r:id="rId1"/>
     <sheet name="retailerB" sheetId="2" r:id="rId2"/>
+    <sheet name="retailerC" sheetId="3" r:id="rId3"/>
+    <sheet name="retailerD" sheetId="4" r:id="rId4"/>
+    <sheet name="retailerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>productA</t>
   </si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>day2</t>
+  </si>
+  <si>
+    <t>productC</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086BA80B-515D-1C45-A726-FCC98EADFE19}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,6 +441,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -442,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A78DF9A-5E23-3B44-8ED2-2FD7A0FF6A74}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -474,10 +491,189 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54D5F2-FE1A-D647-83AC-7DF4B0B43321}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CA68BF-FD85-7041-8C77-89A688E430C3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9392A07-2B07-9D48-BF51-8F8BAAB1E169}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
